--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Y53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -588,22 +588,22 @@
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
+          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -613,22 +613,22 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
+          <t>Materialversagen der Dichtungen, Leckage</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -638,7 +638,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -653,11 +653,19 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
+          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U2" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V2" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -670,7 +678,7 @@
       </c>
       <c r="X2" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y2" t="inlineStr">
@@ -682,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -707,22 +715,22 @@
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -742,12 +750,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -767,19 +775,27 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr"/>
-      <c r="U3" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U3" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V3" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W3" t="inlineStr">
@@ -801,7 +817,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -826,22 +842,22 @@
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
@@ -861,12 +877,12 @@
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Materialversagen der Dichtungen, Leckage</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -876,29 +892,37 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
-        </is>
-      </c>
-      <c r="T4" t="inlineStr"/>
-      <c r="U4" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T4" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr">
+        <is>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
@@ -908,19 +932,19 @@
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -930,7 +954,7 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -940,12 +964,12 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -960,7 +984,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -970,17 +994,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1000,24 +1024,32 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1032,14 +1064,14 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -1049,7 +1081,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -1059,52 +1091,52 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>hohe Viskosität</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>hoch viskoses Medium</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K6" t="inlineStr">
         <is>
-          <t>Leistung</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L6" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M6" t="inlineStr">
         <is>
-          <t>Pumpe ist überfordert</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1114,7 +1146,7 @@
       </c>
       <c r="P6" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q6" t="inlineStr">
@@ -1124,29 +1156,37 @@
       </c>
       <c r="R6" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S6" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
-        </is>
-      </c>
-      <c r="T6" t="inlineStr"/>
-      <c r="U6" t="inlineStr"/>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T6" t="inlineStr">
+        <is>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
@@ -1158,7 +1198,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1168,7 +1208,7 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -1178,52 +1218,52 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>In 2 - N2 Eingang</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Bilden einer explosionsfähige Atmosphäre</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1233,7 +1273,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1243,29 +1283,37 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T7" t="inlineStr"/>
-      <c r="U7" t="inlineStr"/>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V7" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="W7" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X7" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y7" t="inlineStr">
@@ -1277,7 +1325,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>10</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1292,12 +1340,12 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>nur reines Lösungsmittel in Behälter</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
@@ -1312,91 +1360,99 @@
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>reines Lösungsmittel wird zugeführt</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>kein</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P8" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q8" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R8" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T8" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr">
+        <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="P8" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>W3 - relativ hoch</t>
-        </is>
-      </c>
-      <c r="R8" t="inlineStr">
-        <is>
-          <t>In 1 - Feed-Eingang</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>keine Aktion erforderlich</t>
-        </is>
-      </c>
-      <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1411,17 +1467,17 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Stickstoff zum Inertisieren</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>In 2 - N2 Eingang</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
@@ -1431,37 +1487,37 @@
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Explosionsfähige Atmosphäre</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1481,16 +1537,24 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V9" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1515,7 +1579,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1535,7 +1599,7 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feststoffe werden in Behälter eingelassen</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1555,7 +1619,7 @@
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1565,7 +1629,7 @@
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
@@ -1575,7 +1639,7 @@
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1590,12 +1654,12 @@
       </c>
       <c r="P10" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1605,11 +1669,19 @@
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>Filter vor Behälter oder Schulung</t>
-        </is>
-      </c>
-      <c r="T10" t="inlineStr"/>
-      <c r="U10" t="inlineStr"/>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T10" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
       <c r="V10" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1727,8 +1799,16 @@
           <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
-      <c r="T11" t="inlineStr"/>
-      <c r="U11" t="inlineStr"/>
+      <c r="T11" t="inlineStr">
+        <is>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr">
+        <is>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+        </is>
+      </c>
       <c r="V11" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1753,7 +1833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1763,7 +1843,7 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -1773,7 +1853,7 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
@@ -1783,7 +1863,7 @@
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
@@ -1793,12 +1873,12 @@
       </c>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
@@ -1808,17 +1888,17 @@
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1833,21 +1913,29 @@
       </c>
       <c r="Q12" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T12" t="inlineStr"/>
-      <c r="U12" t="inlineStr"/>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T12" t="inlineStr">
+        <is>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V12" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1855,12 +1943,12 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
@@ -1872,7 +1960,7 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1882,7 +1970,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1892,7 +1980,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Feststoffe bilden sich</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -1902,7 +1990,7 @@
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -1912,12 +2000,12 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
@@ -1927,17 +2015,17 @@
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -1952,21 +2040,29 @@
       </c>
       <c r="Q13" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T13" t="inlineStr"/>
-      <c r="U13" t="inlineStr"/>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T13" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+        </is>
+      </c>
       <c r="V13" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1974,12 +2070,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -1991,7 +2087,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2006,12 +2102,12 @@
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
@@ -2021,17 +2117,17 @@
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Extrem niedrige Umgebungstemperatur</t>
+          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
@@ -2041,22 +2137,22 @@
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Aggregatzustand</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Einfrieren des Mediums</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2076,41 +2172,49 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T14" t="inlineStr"/>
-      <c r="U14" t="inlineStr"/>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2120,7 +2224,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2130,7 +2234,7 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+          <t>starke Säure oder Base</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
@@ -2140,7 +2244,7 @@
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
@@ -2150,7 +2254,7 @@
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Druck des eingehenden Mediums zu hoch</t>
+          <t>starke Säure oder Base wird zugeführt</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
@@ -2160,7 +2264,7 @@
       </c>
       <c r="K15" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="L15" t="inlineStr">
@@ -2170,12 +2274,12 @@
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Druckerhöhung innerhalb des Behälters</t>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S4 - katastophal</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2185,26 +2289,34 @@
       </c>
       <c r="P15" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
-      <c r="T15" t="inlineStr"/>
-      <c r="U15" t="inlineStr"/>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T15" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
       <c r="V15" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2212,17 +2324,17 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
@@ -2322,8 +2434,16 @@
           <t>Schulung und SOPs</t>
         </is>
       </c>
-      <c r="T16" t="inlineStr"/>
-      <c r="U16" t="inlineStr"/>
+      <c r="T16" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
       <c r="V16" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2348,119 +2468,4699 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>starke Säure oder Base</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>starke Säure oder Base wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>11</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>starke Säure oder Base</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>starke Säure oder Base wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I19" t="inlineStr">
+        <is>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+        </is>
+      </c>
+      <c r="J19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O19" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P19" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q19" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S19" t="inlineStr">
+        <is>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+        </is>
+      </c>
+      <c r="T19" t="inlineStr">
+        <is>
+          <t>externe Sicherung notwendig</t>
+        </is>
+      </c>
+      <c r="U19" t="inlineStr">
+        <is>
+          <t>externe Sicherung notwendig</t>
+        </is>
+      </c>
+      <c r="V19" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="W19" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X19" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y19" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I20" t="inlineStr">
+        <is>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+        </is>
+      </c>
+      <c r="J20" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L20" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M20" t="inlineStr">
+        <is>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+        </is>
+      </c>
+      <c r="N20" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O20" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P20" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q20" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R20" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S20" t="inlineStr">
+        <is>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+        </is>
+      </c>
+      <c r="T20" t="inlineStr">
+        <is>
+          <t>externe Sicherung notwendig</t>
+        </is>
+      </c>
+      <c r="U20" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+        </is>
+      </c>
+      <c r="V20" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="W20" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X20" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y20" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I21" t="inlineStr">
+        <is>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+        </is>
+      </c>
+      <c r="J21" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L21" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M21" t="inlineStr">
+        <is>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+        </is>
+      </c>
+      <c r="N21" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O21" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P21" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q21" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R21" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S21" t="inlineStr">
+        <is>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+        </is>
+      </c>
+      <c r="T21" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+        </is>
+      </c>
+      <c r="U21" t="inlineStr">
+        <is>
+          <t>externe Sicherung notwendig</t>
+        </is>
+      </c>
+      <c r="V21" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="W21" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X21" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y21" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="inlineStr">
+        <is>
+          <t>3</t>
+        </is>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I22" t="inlineStr">
+        <is>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+        </is>
+      </c>
+      <c r="J22" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L22" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M22" t="inlineStr">
+        <is>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+        </is>
+      </c>
+      <c r="N22" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O22" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P22" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q22" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R22" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S22" t="inlineStr">
+        <is>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+        </is>
+      </c>
+      <c r="T22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+        </is>
+      </c>
+      <c r="U22" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+        </is>
+      </c>
+      <c r="V22" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="W22" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X22" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y22" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>Stickstoff zum Inertisieren</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>In 2 - N2 Eingang</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H23" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I23" t="inlineStr">
+        <is>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+        </is>
+      </c>
+      <c r="J23" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K23" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L23" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M23" t="inlineStr">
+        <is>
+          <t>Explosionsfähige Atmosphäre</t>
+        </is>
+      </c>
+      <c r="N23" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O23" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P23" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q23" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S23" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T23" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U23" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V23" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W23" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X23" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y23" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Stickstoff zum Inertisieren</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>In 2 - N2 Eingang</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H24" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I24" t="inlineStr">
+        <is>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+        </is>
+      </c>
+      <c r="J24" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K24" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L24" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M24" t="inlineStr">
+        <is>
+          <t>Explosionsfähige Atmosphäre</t>
+        </is>
+      </c>
+      <c r="N24" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O24" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P24" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q24" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T24" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U24" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V24" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W24" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X24" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y24" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>Stickstoff zum Inertisieren</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>In 2 - N2 Eingang</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H25" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I25" t="inlineStr">
+        <is>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+        </is>
+      </c>
+      <c r="J25" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K25" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L25" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M25" t="inlineStr">
+        <is>
+          <t>Explosionsfähige Atmosphäre</t>
+        </is>
+      </c>
+      <c r="N25" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O25" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P25" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q25" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T25" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U25" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V25" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W25" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X25" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y25" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="inlineStr">
+        <is>
+          <t>17</t>
+        </is>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>Stickstoff zum Inertisieren</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>In 2 - N2 Eingang</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H26" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I26" t="inlineStr">
+        <is>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+        </is>
+      </c>
+      <c r="J26" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K26" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L26" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M26" t="inlineStr">
+        <is>
+          <t>Explosionsfähige Atmosphäre</t>
+        </is>
+      </c>
+      <c r="N26" t="inlineStr">
+        <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="O26" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P26" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Q26" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U26" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V26" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W26" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X26" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y26" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="inlineStr">
+        <is>
+          <t>8</t>
+        </is>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H27" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I27" t="inlineStr">
+        <is>
+          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
+        </is>
+      </c>
+      <c r="J27" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K27" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L27" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M27" t="inlineStr">
+        <is>
+          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
+        </is>
+      </c>
+      <c r="N27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O27" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P27" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q27" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R27" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S27" t="inlineStr">
+        <is>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U27" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V27" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W27" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X27" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y27" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>nur reines Lösungsmittel in Behälter</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H28" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="I28" t="inlineStr">
+        <is>
+          <t>reines Lösungsmittel wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J28" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M28" t="inlineStr">
+        <is>
+          <t>kein</t>
+        </is>
+      </c>
+      <c r="N28" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="O28" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P28" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q28" t="inlineStr">
+        <is>
+          <t>W3 - relativ hoch</t>
+        </is>
+      </c>
+      <c r="R28" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S28" t="inlineStr">
+        <is>
+          <t>keine Aktion erforderlich</t>
+        </is>
+      </c>
+      <c r="T28" t="inlineStr">
+        <is>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="U28" t="inlineStr">
+        <is>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="V28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y28" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>nur reines Lösungsmittel in Behälter</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H29" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="I29" t="inlineStr">
+        <is>
+          <t>reines Lösungsmittel wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J29" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M29" t="inlineStr">
+        <is>
+          <t>kein</t>
+        </is>
+      </c>
+      <c r="N29" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="O29" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P29" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q29" t="inlineStr">
+        <is>
+          <t>W3 - relativ hoch</t>
+        </is>
+      </c>
+      <c r="R29" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S29" t="inlineStr">
+        <is>
+          <t>keine Aktion erforderlich</t>
+        </is>
+      </c>
+      <c r="T29" t="inlineStr">
+        <is>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="U29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y29" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>nur reines Lösungsmittel in Behälter</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H30" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="I30" t="inlineStr">
+        <is>
+          <t>reines Lösungsmittel wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J30" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M30" t="inlineStr">
+        <is>
+          <t>kein</t>
+        </is>
+      </c>
+      <c r="N30" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="O30" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P30" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q30" t="inlineStr">
+        <is>
+          <t>W3 - relativ hoch</t>
+        </is>
+      </c>
+      <c r="R30" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S30" t="inlineStr">
+        <is>
+          <t>keine Aktion erforderlich</t>
+        </is>
+      </c>
+      <c r="T30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U30" t="inlineStr">
+        <is>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="V30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y30" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="inlineStr">
+        <is>
+          <t>10</t>
+        </is>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>nur reines Lösungsmittel in Behälter</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H31" t="inlineStr">
+        <is>
+          <t>Kein</t>
+        </is>
+      </c>
+      <c r="I31" t="inlineStr">
+        <is>
+          <t>reines Lösungsmittel wird zugeführt</t>
+        </is>
+      </c>
+      <c r="J31" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="L31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="M31" t="inlineStr">
+        <is>
+          <t>kein</t>
+        </is>
+      </c>
+      <c r="N31" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="O31" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P31" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q31" t="inlineStr">
+        <is>
+          <t>W3 - relativ hoch</t>
+        </is>
+      </c>
+      <c r="R31" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S31" t="inlineStr">
+        <is>
+          <t>keine Aktion erforderlich</t>
+        </is>
+      </c>
+      <c r="T31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y31" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" t="inlineStr">
+        <is>
+          <t>4</t>
+        </is>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H32" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="I32" t="inlineStr">
+        <is>
+          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
+        </is>
+      </c>
+      <c r="J32" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K32" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L32" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M32" t="inlineStr">
+        <is>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
+        </is>
+      </c>
+      <c r="N32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O32" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P32" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q32" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R32" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S32" t="inlineStr">
+        <is>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U32" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V32" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W32" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X32" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y32" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H33" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I33" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J33" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K33" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L33" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M33" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N33" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O33" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P33" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q33" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U33" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V33" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W33" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X33" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y33" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H34" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I34" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J34" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K34" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L34" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M34" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N34" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O34" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P34" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q34" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T34" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U34" t="inlineStr">
+        <is>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="V34" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W34" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X34" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y34" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I35" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J35" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K35" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L35" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M35" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N35" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q35" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T35" t="inlineStr">
+        <is>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="U35" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V35" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W35" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X35" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y35" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" t="inlineStr">
+        <is>
+          <t>16</t>
+        </is>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I36" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J36" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K36" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L36" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M36" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N36" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q36" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S36" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T36" t="inlineStr">
+        <is>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="U36" t="inlineStr">
+        <is>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="V36" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W36" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X36" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y36" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" t="inlineStr">
+        <is>
           <t>12</t>
         </is>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E17" t="inlineStr">
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
         <is>
           <t>organisches Lösungsmittel</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="F37" t="inlineStr">
         <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="G37" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="I17" t="inlineStr">
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I37" t="inlineStr">
         <is>
           <t>organisches Lösungsmittel wird angeschlossen</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="J37" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K37" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="L37" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M37" t="inlineStr">
         <is>
           <t>Beschädigung der Dichtungen</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="N37" t="inlineStr">
         <is>
           <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="O37" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="P37" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="Q37" t="inlineStr">
         <is>
           <t>W2 - gering</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr">
+      <c r="R37" t="inlineStr">
         <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="S17" t="inlineStr">
+      <c r="S37" t="inlineStr">
         <is>
           <t>Schulung und SOPs</t>
         </is>
       </c>
-      <c r="T17" t="inlineStr"/>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="T37" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U37" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V37" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="W37" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="X37" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Y37" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I38" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
+        </is>
+      </c>
+      <c r="J38" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K38" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="L38" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M38" t="inlineStr">
+        <is>
+          <t>Beschädigung der Dichtungen</t>
+        </is>
+      </c>
+      <c r="N38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q38" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R38" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S38" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T38" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U38" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V38" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W38" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X38" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y38" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I39" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
+        </is>
+      </c>
+      <c r="J39" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K39" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="L39" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M39" t="inlineStr">
+        <is>
+          <t>Beschädigung der Dichtungen</t>
+        </is>
+      </c>
+      <c r="N39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q39" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R39" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S39" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T39" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U39" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V39" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W39" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X39" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y39" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" t="inlineStr">
+        <is>
+          <t>12</t>
+        </is>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I40" t="inlineStr">
+        <is>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
+        </is>
+      </c>
+      <c r="J40" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K40" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="L40" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M40" t="inlineStr">
+        <is>
+          <t>Beschädigung der Dichtungen</t>
+        </is>
+      </c>
+      <c r="N40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q40" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R40" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S40" t="inlineStr">
+        <is>
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="T40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U40" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V40" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W40" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X40" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y40" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" t="inlineStr">
+        <is>
+          <t>7</t>
+        </is>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I41" t="inlineStr">
+        <is>
+          <t>Druck des eingehenden Mediums zu hoch</t>
+        </is>
+      </c>
+      <c r="J41" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K41" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L41" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="M41" t="inlineStr">
+        <is>
+          <t>Druckerhöhung innerhalb des Behälters</t>
+        </is>
+      </c>
+      <c r="N41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q41" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R41" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="S41" t="inlineStr">
+        <is>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U41" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V41" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W41" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="X41" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Y41" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>Feststoffe bilden sich</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I42" t="inlineStr">
+        <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="J42" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K42" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L42" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M42" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N42" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q42" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U42" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V42" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W42" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X42" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y42" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>Feststoffe bilden sich</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I43" t="inlineStr">
+        <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="J43" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K43" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L43" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M43" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N43" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q43" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T43" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U43" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="V43" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W43" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X43" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y43" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>Feststoffe bilden sich</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I44" t="inlineStr">
+        <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="J44" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K44" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L44" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M44" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N44" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q44" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T44" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="U44" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V44" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W44" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X44" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y44" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" t="inlineStr">
+        <is>
+          <t>14</t>
+        </is>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>Feststoffe bilden sich</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I45" t="inlineStr">
+        <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="J45" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K45" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L45" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M45" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N45" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q45" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S45" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T45" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="U45" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="V45" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W45" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X45" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y45" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>Feststoffe werden in Behälter eingelassen</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I46" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J46" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K46" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L46" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M46" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N46" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q46" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R46" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S46" t="inlineStr">
+        <is>
+          <t>Filter vor Behälter oder Schulung</t>
+        </is>
+      </c>
+      <c r="T46" t="inlineStr">
+        <is>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+        </is>
+      </c>
+      <c r="U46" t="inlineStr">
+        <is>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+        </is>
+      </c>
+      <c r="V46" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W46" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X46" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y46" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>Feststoffe werden in Behälter eingelassen</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I47" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J47" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K47" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L47" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M47" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N47" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q47" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R47" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S47" t="inlineStr">
+        <is>
+          <t>Filter vor Behälter oder Schulung</t>
+        </is>
+      </c>
+      <c r="T47" t="inlineStr">
+        <is>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+        </is>
+      </c>
+      <c r="U47" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V47" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W47" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X47" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y47" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>Feststoffe werden in Behälter eingelassen</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I48" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J48" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K48" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L48" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M48" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N48" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q48" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R48" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S48" t="inlineStr">
+        <is>
+          <t>Filter vor Behälter oder Schulung</t>
+        </is>
+      </c>
+      <c r="T48" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U48" t="inlineStr">
+        <is>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+        </is>
+      </c>
+      <c r="V48" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W48" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X48" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y48" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" t="inlineStr">
+        <is>
+          <t>15</t>
+        </is>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>Feststoffe werden in Behälter eingelassen</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I49" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J49" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K49" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="L49" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="M49" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="N49" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q49" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R49" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="S49" t="inlineStr">
+        <is>
+          <t>Filter vor Behälter oder Schulung</t>
+        </is>
+      </c>
+      <c r="T49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U49" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V49" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W49" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X49" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Y49" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I50" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="J50" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K50" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="L50" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="M50" t="inlineStr">
+        <is>
+          <t>Einfrieren des Mediums</t>
+        </is>
+      </c>
+      <c r="N50" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q50" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T50" t="inlineStr">
+        <is>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="U50" t="inlineStr">
+        <is>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="V50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y50" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I51" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="J51" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K51" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="L51" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="M51" t="inlineStr">
+        <is>
+          <t>Einfrieren des Mediums</t>
+        </is>
+      </c>
+      <c r="N51" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q51" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T51" t="inlineStr">
+        <is>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="U51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y51" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I52" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="J52" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K52" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="L52" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="M52" t="inlineStr">
+        <is>
+          <t>Einfrieren des Mediums</t>
+        </is>
+      </c>
+      <c r="N52" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q52" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U52" t="inlineStr">
+        <is>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="V52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y52" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" t="inlineStr">
+        <is>
+          <t>6</t>
+        </is>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="I53" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="J53" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K53" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="L53" t="inlineStr">
+        <is>
+          <t>Anderer/Anders als</t>
+        </is>
+      </c>
+      <c r="M53" t="inlineStr">
+        <is>
+          <t>Einfrieren des Mediums</t>
+        </is>
+      </c>
+      <c r="N53" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q53" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="U53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="W53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="X53" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="Y53" t="inlineStr">
+        <is>
+          <t>nan</t>
         </is>
       </c>
     </row>

--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -563,7 +563,7 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>15</t>
+          <t>12</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
@@ -583,7 +583,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>Feststoffe werden in Behälter eingelassen</t>
+          <t>organisches Lösungsmittel</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -598,37 +598,37 @@
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Beschädigung der Dichtungen</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -653,17 +653,17 @@
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Filter vor Behälter oder Schulung</t>
+          <t>Schulung und SOPs</t>
         </is>
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
         </is>
       </c>
       <c r="U2" t="inlineStr">
         <is>
-          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V2" t="inlineStr">
@@ -690,7 +690,7 @@
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>11</t>
+          <t>2</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -700,7 +700,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -710,17 +710,17 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>starke Säure oder Base</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
@@ -730,7 +730,7 @@
       </c>
       <c r="I3" t="inlineStr">
         <is>
-          <t>starke Säure oder Base wird zugeführt</t>
+          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
         </is>
       </c>
       <c r="J3" t="inlineStr">
@@ -740,7 +740,7 @@
       </c>
       <c r="K3" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L3" t="inlineStr">
@@ -750,12 +750,12 @@
       </c>
       <c r="M3" t="inlineStr">
         <is>
-          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N3" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O3" t="inlineStr">
@@ -765,7 +765,7 @@
       </c>
       <c r="P3" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q3" t="inlineStr">
@@ -775,22 +775,22 @@
       </c>
       <c r="R3" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S3" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="T3" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
         </is>
       </c>
       <c r="U3" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V3" t="inlineStr">
@@ -800,12 +800,12 @@
       </c>
       <c r="W3" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X3" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y3" t="inlineStr">
@@ -817,7 +817,7 @@
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>12</t>
+          <t>13</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -837,7 +837,7 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
@@ -852,37 +852,37 @@
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel wird angeschlossen</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K4" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L4" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Beschädigung der Dichtungen</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O4" t="inlineStr">
@@ -892,12 +892,12 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
@@ -912,12 +912,12 @@
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
@@ -944,7 +944,7 @@
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>6</t>
+          <t>5</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -959,32 +959,32 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Extrem niedrige Umgebungstemperatur</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -994,22 +994,22 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>Aggregatzustand</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Einfrieren des Mediums</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O5" t="inlineStr">
@@ -1039,32 +1039,32 @@
       </c>
       <c r="T5" t="inlineStr">
         <is>
-          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
         </is>
       </c>
       <c r="U5" t="inlineStr">
         <is>
-          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
@@ -1171,7 +1171,7 @@
       </c>
       <c r="U6" t="inlineStr">
         <is>
-          <t>Normalzustand</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V6" t="inlineStr">
@@ -1198,7 +1198,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>13</t>
+          <t>17</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -1213,17 +1213,17 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>hohe Viskosität</t>
+          <t>Stickstoff zum Inertisieren</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
@@ -1233,37 +1233,37 @@
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>hoch viskoses Medium</t>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Leistung</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Pumpe ist überfordert</t>
+          <t>Explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>S4 - katastophal</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1283,22 +1283,22 @@
       </c>
       <c r="R7" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S7" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
         </is>
       </c>
       <c r="U7" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V7" t="inlineStr">
@@ -1325,7 +1325,7 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>17</t>
+          <t>4</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -1335,37 +1335,37 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
+      <c r="H8" t="inlineStr">
+        <is>
           <t>Anderer/Anders als</t>
         </is>
       </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>Stickstoff zum Inertisieren</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>In 2 - N2 Eingang</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
-      <c r="H8" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
+          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1385,12 +1385,12 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Explosionsfähige Atmosphäre</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O8" t="inlineStr">
@@ -1400,32 +1400,32 @@
       </c>
       <c r="P8" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q8" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S8" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="T8" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U8" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V8" t="inlineStr">
@@ -1435,24 +1435,24 @@
       </c>
       <c r="W8" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X8" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y8" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>5</t>
+          <t>3</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -1477,22 +1477,22 @@
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>In 2 - N2 Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1512,12 +1512,12 @@
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Bilden einer explosionsfähige Atmosphäre</t>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1537,27 +1537,27 @@
       </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
         </is>
       </c>
       <c r="T9" t="inlineStr">
         <is>
-          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
         </is>
       </c>
       <c r="U9" t="inlineStr">
         <is>
-          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+          <t>externe Sicherung notwendig</t>
         </is>
       </c>
       <c r="V9" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1579,7 +1579,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>14</t>
+          <t>6</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -1589,17 +1589,17 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Feststoffe bilden sich</t>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
@@ -1609,37 +1609,37 @@
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+          <t>Extrem niedrige Umgebungstemperatur</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K10" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Aggregatzustand</t>
         </is>
       </c>
       <c r="L10" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Einfrieren des Mediums</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
@@ -1659,7 +1659,7 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
@@ -1674,39 +1674,39 @@
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
         </is>
       </c>
       <c r="U10" t="inlineStr">
         <is>
-          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V10" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="W10" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="X10" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="Y10" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>nan</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>7</t>
+          <t>1</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -1716,7 +1716,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1726,7 +1726,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1736,7 +1736,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1746,7 +1746,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Druck des eingehenden Mediums zu hoch</t>
+          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1756,22 +1756,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Druckerhöhung innerhalb des Behälters</t>
+          <t>Materialversagen der Dichtungen, Leckage</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1781,7 +1781,7 @@
       </c>
       <c r="P11" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q11" t="inlineStr">
@@ -1796,7 +1796,7 @@
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
+          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
@@ -1821,7 +1821,7 @@
       </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
@@ -1833,7 +1833,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>8</t>
+          <t>16</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -1843,62 +1843,62 @@
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H12" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I12" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J12" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K12" t="inlineStr">
+        <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
-      <c r="I12" t="inlineStr">
-        <is>
-          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
-        </is>
-      </c>
-      <c r="J12" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K12" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1918,17 +1918,17 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
         </is>
       </c>
       <c r="U12" t="inlineStr">
@@ -1943,24 +1943,24 @@
       </c>
       <c r="W12" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X12" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y12" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2</t>
+          <t>11</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
@@ -1970,7 +1970,7 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -1980,17 +1980,17 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>starke Säure oder Base</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
@@ -2000,7 +2000,7 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
+          <t>starke Säure oder Base wird zugeführt</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
@@ -2010,7 +2010,7 @@
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
@@ -2020,12 +2020,12 @@
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S4 - katastophal</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2035,7 +2035,7 @@
       </c>
       <c r="P13" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q13" t="inlineStr">
@@ -2045,22 +2045,22 @@
       </c>
       <c r="R13" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S13" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
+          <t>Schulung und SOPs</t>
         </is>
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
         </is>
       </c>
       <c r="U13" t="inlineStr">
         <is>
-          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V13" t="inlineStr">
@@ -2070,12 +2070,12 @@
       </c>
       <c r="W13" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X13" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y13" t="inlineStr">
@@ -2087,7 +2087,7 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>16</t>
+          <t>7</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -2097,7 +2097,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -2107,17 +2107,17 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
@@ -2127,12 +2127,12 @@
       </c>
       <c r="I14" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>Druck des eingehenden Mediums zu hoch</t>
         </is>
       </c>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
@@ -2142,17 +2142,17 @@
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Druckerhöhung innerhalb des Behälters</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2172,22 +2172,22 @@
       </c>
       <c r="R14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S14" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U14" t="inlineStr">
         <is>
-          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V14" t="inlineStr">
@@ -2197,24 +2197,24 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>4</t>
+          <t>15</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -2224,7 +2224,7 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -2234,32 +2234,32 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Feststoffe werden in Behälter eingelassen</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
+          <t>Feststoffe gelangen in Behälter</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K15" t="inlineStr">
@@ -2269,17 +2269,17 @@
       </c>
       <c r="L15" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M15" t="inlineStr">
         <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
       <c r="N15" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O15" t="inlineStr">
@@ -2299,17 +2299,17 @@
       </c>
       <c r="R15" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S15" t="inlineStr">
         <is>
-          <t>Sicherheitsventil VY3010</t>
+          <t>Filter vor Behälter oder Schulung</t>
         </is>
       </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
         </is>
       </c>
       <c r="U15" t="inlineStr">
@@ -2324,24 +2324,24 @@
       </c>
       <c r="W15" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X15" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y15" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>3</t>
+          <t>8</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -2351,7 +2351,7 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -2361,7 +2361,7 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
@@ -2371,17 +2371,17 @@
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
@@ -2391,22 +2391,22 @@
       </c>
       <c r="K16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2421,7 +2421,7 @@
       </c>
       <c r="Q16" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="R16" t="inlineStr">
@@ -2431,22 +2431,22 @@
       </c>
       <c r="S16" t="inlineStr">
         <is>
-          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="T16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="U16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+          <t>nan</t>
         </is>
       </c>
       <c r="V16" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="W16" t="inlineStr">
@@ -2461,14 +2461,14 @@
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>1</t>
+          <t>14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
@@ -2478,7 +2478,7 @@
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -2488,17 +2488,17 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Feststoffe bilden sich</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
@@ -2508,27 +2508,27 @@
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Materialversagen der Dichtungen, Leckage</t>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
@@ -2543,52 +2543,52 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>nan</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
-        </is>
-      </c>
-      <c r="T17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V17" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W17" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="X17" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
       <c r="Y17" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>

--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -536,35 +536,33 @@
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>Safeguard Otherinfo</t>
+          <t>Safeguard Other info</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>Restrisiko Severity</t>
+          <t>Risk Graph Severity</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Restrisiko Frequency of Presence </t>
+          <t xml:space="preserve">Risk Graph Frequency of Presence </t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>Restrisiko Possibility of avoiding</t>
+          <t>Risk Graph Possibility of avoiding</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>Restrisiko Probability</t>
+          <t>Risk Graph Probability</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>12</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
@@ -573,7 +571,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -583,7 +581,7 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
@@ -593,17 +591,17 @@
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I2" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel wird angeschlossen</t>
+          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
         </is>
       </c>
       <c r="J2" t="inlineStr">
@@ -611,24 +609,16 @@
           <t>Speicherbehälter</t>
         </is>
       </c>
-      <c r="K2" t="inlineStr">
-        <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
-      <c r="L2" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
+      <c r="K2" t="inlineStr"/>
+      <c r="L2" t="inlineStr"/>
       <c r="M2" t="inlineStr">
         <is>
-          <t>Beschädigung der Dichtungen</t>
+          <t>Materialversagen der Dichtungen, Leckage</t>
         </is>
       </c>
       <c r="N2" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O2" t="inlineStr">
@@ -638,7 +628,7 @@
       </c>
       <c r="P2" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q2" t="inlineStr">
@@ -648,24 +638,16 @@
       </c>
       <c r="R2" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S2" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr">
-        <is>
-          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
-        </is>
-      </c>
-      <c r="U2" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
+        </is>
+      </c>
+      <c r="T2" t="inlineStr"/>
+      <c r="U2" t="inlineStr"/>
       <c r="V2" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -673,7 +655,7 @@
       </c>
       <c r="W2" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X2" t="inlineStr">
@@ -683,15 +665,13 @@
       </c>
       <c r="Y2" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>2</t>
-        </is>
+      <c r="A3" t="n">
+        <v>2</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
@@ -788,11 +768,7 @@
           <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
         </is>
       </c>
-      <c r="U3" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="U3" t="inlineStr"/>
       <c r="V3" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -815,10 +791,8 @@
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>13</t>
-        </is>
+      <c r="A4" t="n">
+        <v>3</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
@@ -827,7 +801,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -837,47 +811,31 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>hohe Viskosität</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
       <c r="I4" t="inlineStr">
         <is>
-          <t>hoch viskoses Medium</t>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr">
-        <is>
-          <t>Leistung</t>
-        </is>
-      </c>
-      <c r="L4" t="inlineStr">
-        <is>
-          <t>Weniger</t>
-        </is>
-      </c>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr"/>
+      <c r="L4" t="inlineStr"/>
       <c r="M4" t="inlineStr">
         <is>
-          <t>Pumpe ist überfordert</t>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
         </is>
       </c>
       <c r="N4" t="inlineStr">
@@ -892,7 +850,7 @@
       </c>
       <c r="P4" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q4" t="inlineStr">
@@ -902,37 +860,37 @@
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
         </is>
       </c>
       <c r="U4" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>externe Sicherung notwendig</t>
         </is>
       </c>
       <c r="V4" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="W4" t="inlineStr">
         <is>
-          <t>A1 - selten bis häufig</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X4" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y4" t="inlineStr">
@@ -942,10 +900,8 @@
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>5</t>
-        </is>
+      <c r="A5" t="n">
+        <v>4</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
@@ -969,7 +925,7 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>In 2 - N2 Eingang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
@@ -984,7 +940,7 @@
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
+          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
@@ -994,17 +950,17 @@
       </c>
       <c r="K5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Bilden einer explosionsfähige Atmosphäre</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
@@ -1024,32 +980,24 @@
       </c>
       <c r="Q5" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="T5" t="inlineStr">
-        <is>
-          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
-        </is>
-      </c>
-      <c r="U5" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr"/>
+      <c r="U5" t="inlineStr"/>
       <c r="V5" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="W5" t="inlineStr">
@@ -1064,15 +1012,13 @@
       </c>
       <c r="Y5" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>10</t>
-        </is>
+      <c r="A6" t="n">
+        <v>5</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
@@ -1081,37 +1027,37 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>nur reines Lösungsmittel in Behälter</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I6" t="inlineStr">
         <is>
-          <t>reines Lösungsmittel wird zugeführt</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
@@ -1119,24 +1065,16 @@
           <t>Speicherbehälter</t>
         </is>
       </c>
-      <c r="K6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="L6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="K6" t="inlineStr"/>
+      <c r="L6" t="inlineStr"/>
       <c r="M6" t="inlineStr">
         <is>
-          <t>kein</t>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
@@ -1151,55 +1089,41 @@
       </c>
       <c r="Q6" t="inlineStr">
         <is>
-          <t>W3 - relativ hoch</t>
-        </is>
-      </c>
-      <c r="R6" t="inlineStr">
-        <is>
-          <t>In 1 - Feed-Eingang</t>
-        </is>
-      </c>
-      <c r="S6" t="inlineStr">
-        <is>
-          <t>keine Aktion erforderlich</t>
-        </is>
-      </c>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R6" t="inlineStr"/>
+      <c r="S6" t="inlineStr"/>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Normalzustand</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr"/>
       <c r="V6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="X6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Y6" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="inlineStr">
-        <is>
-          <t>17</t>
-        </is>
+      <c r="A7" t="n">
+        <v>6</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
@@ -1208,62 +1132,54 @@
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
         <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr"/>
+      <c r="I7" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="J7" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="K7" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="L7" t="inlineStr">
+        <is>
           <t>Anderer/Anders als</t>
         </is>
       </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>Stickstoff zum Inertisieren</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>In 2 - N2 Eingang</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
-      <c r="H7" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
-      <c r="I7" t="inlineStr">
-        <is>
-          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
-        </is>
-      </c>
-      <c r="J7" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K7" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
-      <c r="L7" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Explosionsfähige Atmosphäre</t>
+          <t>Einfrieren des Mediums</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
@@ -1273,7 +1189,7 @@
       </c>
       <c r="P7" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="Q7" t="inlineStr">
@@ -1281,52 +1197,22 @@
           <t>W1 - sehr gering</t>
         </is>
       </c>
-      <c r="R7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="S7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="R7" t="inlineStr"/>
+      <c r="S7" t="inlineStr"/>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
-        </is>
-      </c>
-      <c r="U7" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W7" t="inlineStr">
-        <is>
-          <t>A1 - selten bis häufig</t>
-        </is>
-      </c>
-      <c r="X7" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
-      <c r="Y7" t="inlineStr">
-        <is>
-          <t>W1 - sehr gering</t>
-        </is>
-      </c>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="U7" t="inlineStr"/>
+      <c r="V7" t="inlineStr"/>
+      <c r="W7" t="inlineStr"/>
+      <c r="X7" t="inlineStr"/>
+      <c r="Y7" t="inlineStr"/>
     </row>
     <row r="8">
-      <c r="A8" t="inlineStr">
-        <is>
-          <t>4</t>
-        </is>
+      <c r="A8" t="n">
+        <v>7</v>
       </c>
       <c r="B8" t="inlineStr">
         <is>
@@ -1335,7 +1221,7 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -1345,27 +1231,27 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
+          <t>Druck des eingehenden Mediums zu hoch</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
@@ -1385,7 +1271,7 @@
       </c>
       <c r="M8" t="inlineStr">
         <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
+          <t>Druckerhöhung innerhalb des Behälters</t>
         </is>
       </c>
       <c r="N8" t="inlineStr">
@@ -1418,16 +1304,8 @@
           <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
-      <c r="T8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U8" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="T8" t="inlineStr"/>
+      <c r="U8" t="inlineStr"/>
       <c r="V8" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1450,10 +1328,8 @@
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="inlineStr">
-        <is>
-          <t>3</t>
-        </is>
+      <c r="A9" t="n">
+        <v>8</v>
       </c>
       <c r="B9" t="inlineStr">
         <is>
@@ -1462,7 +1338,7 @@
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -1472,7 +1348,7 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
@@ -1482,17 +1358,17 @@
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I9" t="inlineStr">
         <is>
-          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
         </is>
       </c>
       <c r="J9" t="inlineStr">
@@ -1502,22 +1378,22 @@
       </c>
       <c r="K9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="L9" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M9" t="inlineStr">
         <is>
-          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
+          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
         </is>
       </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
@@ -1532,7 +1408,7 @@
       </c>
       <c r="Q9" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="R9" t="inlineStr">
@@ -1542,22 +1418,14 @@
       </c>
       <c r="S9" t="inlineStr">
         <is>
-          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
-        </is>
-      </c>
-      <c r="T9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
-        </is>
-      </c>
-      <c r="U9" t="inlineStr">
-        <is>
-          <t>externe Sicherung notwendig</t>
-        </is>
-      </c>
+          <t>Sicherheitsventil VY3010</t>
+        </is>
+      </c>
+      <c r="T9" t="inlineStr"/>
+      <c r="U9" t="inlineStr"/>
       <c r="V9" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="W9" t="inlineStr">
@@ -1572,15 +1440,13 @@
       </c>
       <c r="Y9" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="10">
-      <c r="A10" t="inlineStr">
-        <is>
-          <t>6</t>
-        </is>
+      <c r="A10" t="n">
+        <v>10</v>
       </c>
       <c r="B10" t="inlineStr">
         <is>
@@ -1589,37 +1455,37 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Kein</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+          <t>nur reines Lösungsmittel in Behälter</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Kein</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>Extrem niedrige Umgebungstemperatur</t>
+          <t>reines Lösungsmittel wird zugeführt</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
@@ -1627,24 +1493,16 @@
           <t>Speicherbehälter</t>
         </is>
       </c>
-      <c r="K10" t="inlineStr">
-        <is>
-          <t>Aggregatzustand</t>
-        </is>
-      </c>
-      <c r="L10" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
+      <c r="K10" t="inlineStr"/>
+      <c r="L10" t="inlineStr"/>
       <c r="M10" t="inlineStr">
         <is>
-          <t>Einfrieren des Mediums</t>
+          <t>kein</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
@@ -1659,55 +1517,33 @@
       </c>
       <c r="Q10" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>W3 - relativ hoch</t>
         </is>
       </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>keine Aktion erforderlich</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
-        </is>
-      </c>
-      <c r="U10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="V10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="W10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="X10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="Y10" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="U10" t="inlineStr"/>
+      <c r="V10" t="inlineStr"/>
+      <c r="W10" t="inlineStr"/>
+      <c r="X10" t="inlineStr"/>
+      <c r="Y10" t="inlineStr"/>
     </row>
     <row r="11">
-      <c r="A11" t="inlineStr">
-        <is>
-          <t>1</t>
-        </is>
+      <c r="A11" t="n">
+        <v>11</v>
       </c>
       <c r="B11" t="inlineStr">
         <is>
@@ -1716,7 +1552,7 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -1726,7 +1562,7 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+          <t>starke Säure oder Base</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
@@ -1736,7 +1572,7 @@
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Temperatur</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
@@ -1746,7 +1582,7 @@
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
+          <t>starke Säure oder Base wird zugeführt</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
@@ -1756,22 +1592,22 @@
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Materialversagen der Dichtungen, Leckage</t>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>S4 - katastophal</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
@@ -1786,29 +1622,25 @@
       </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
+          <t>Schulung und SOPs</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U11" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
+      <c r="U11" t="inlineStr"/>
       <c r="V11" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1816,7 +1648,7 @@
       </c>
       <c r="W11" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X11" t="inlineStr">
@@ -1826,15 +1658,13 @@
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="inlineStr">
-        <is>
-          <t>16</t>
-        </is>
+      <c r="A12" t="n">
+        <v>12</v>
       </c>
       <c r="B12" t="inlineStr">
         <is>
@@ -1853,12 +1683,12 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+          <t>organisches Lösungsmittel</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
@@ -1866,39 +1696,35 @@
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
+      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="L12" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M12" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Beschädigung der Dichtungen</t>
         </is>
       </c>
       <c r="N12" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
@@ -1918,24 +1744,20 @@
       </c>
       <c r="R12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
       <c r="S12" t="inlineStr">
         <is>
-          <t>nan</t>
+          <t>Schulung und SOPs</t>
         </is>
       </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr"/>
       <c r="V12" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -1958,10 +1780,8 @@
       </c>
     </row>
     <row r="13">
-      <c r="A13" t="inlineStr">
-        <is>
-          <t>11</t>
-        </is>
+      <c r="A13" t="n">
+        <v>13</v>
       </c>
       <c r="B13" t="inlineStr">
         <is>
@@ -1980,7 +1800,7 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>starke Säure oder Base</t>
+          <t>hohe Viskosität</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
@@ -2000,32 +1820,32 @@
       </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>starke Säure oder Base wird zugeführt</t>
+          <t>hoch viskoses Medium</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Leistung</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
+          <t>Pumpe ist überfordert</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
@@ -2055,14 +1875,10 @@
       </c>
       <c r="T13" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U13" t="inlineStr"/>
       <c r="V13" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2085,10 +1901,8 @@
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="inlineStr">
-        <is>
-          <t>7</t>
-        </is>
+      <c r="A14" t="n">
+        <v>14</v>
       </c>
       <c r="B14" t="inlineStr">
         <is>
@@ -2097,62 +1911,62 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>Feststoffe bilden sich</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I14" t="inlineStr">
+        <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="J14" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K14" t="inlineStr">
+        <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E14" t="inlineStr">
-        <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
-        </is>
-      </c>
-      <c r="F14" t="inlineStr">
-        <is>
-          <t>In 1 - Feed-Eingang</t>
-        </is>
-      </c>
-      <c r="G14" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Druck des eingehenden Mediums zu hoch</t>
-        </is>
-      </c>
-      <c r="J14" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K14" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Druckerhöhung innerhalb des Behälters</t>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
@@ -2170,26 +1984,14 @@
           <t>W2 - gering</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S14" t="inlineStr">
-        <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
+      <c r="R14" t="inlineStr"/>
+      <c r="S14" t="inlineStr"/>
       <c r="T14" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr"/>
       <c r="V14" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2197,25 +1999,23 @@
       </c>
       <c r="W14" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X14" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y14" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="inlineStr">
-        <is>
-          <t>15</t>
-        </is>
+      <c r="A15" t="n">
+        <v>15</v>
       </c>
       <c r="B15" t="inlineStr">
         <is>
@@ -2312,11 +2112,7 @@
           <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
         </is>
       </c>
-      <c r="U15" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+      <c r="U15" t="inlineStr"/>
       <c r="V15" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2339,10 +2135,8 @@
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="inlineStr">
-        <is>
-          <t>8</t>
-        </is>
+      <c r="A16" t="n">
+        <v>16</v>
       </c>
       <c r="B16" t="inlineStr">
         <is>
@@ -2351,62 +2145,62 @@
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="I16" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="J16" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E16" t="inlineStr">
-        <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
-        </is>
-      </c>
-      <c r="F16" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="G16" t="inlineStr">
-        <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
-      <c r="I16" t="inlineStr">
-        <is>
-          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
-        </is>
-      </c>
-      <c r="J16" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K16" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
       <c r="L16" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="M16" t="inlineStr">
         <is>
-          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
       <c r="N16" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>S2 - geringe</t>
         </is>
       </c>
       <c r="O16" t="inlineStr">
@@ -2424,26 +2218,14 @@
           <t>W2 - gering</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S16" t="inlineStr">
-        <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
+      <c r="R16" t="inlineStr"/>
+      <c r="S16" t="inlineStr"/>
       <c r="T16" t="inlineStr">
         <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="U16" t="inlineStr"/>
       <c r="V16" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
@@ -2451,25 +2233,23 @@
       </c>
       <c r="W16" t="inlineStr">
         <is>
-          <t>A2 - häufig bis andauernd</t>
+          <t>A1 - selten bis häufig</t>
         </is>
       </c>
       <c r="X16" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Y16" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="inlineStr">
-        <is>
-          <t>14</t>
-        </is>
+      <c r="A17" t="n">
+        <v>17</v>
       </c>
       <c r="B17" t="inlineStr">
         <is>
@@ -2483,17 +2263,17 @@
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>Feststoffe bilden sich</t>
+          <t>Stickstoff zum Inertisieren</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
@@ -2503,17 +2283,17 @@
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="I17" t="inlineStr">
         <is>
-          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+          <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
         </is>
       </c>
       <c r="J17" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="K17" t="inlineStr">
@@ -2523,17 +2303,17 @@
       </c>
       <c r="L17" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="M17" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Explosionsfähige Atmosphäre</t>
         </is>
       </c>
       <c r="N17" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>S4 - katastophal</t>
         </is>
       </c>
       <c r="O17" t="inlineStr">
@@ -2543,34 +2323,22 @@
       </c>
       <c r="P17" t="inlineStr">
         <is>
-          <t>G1 - möglich</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="Q17" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
-      <c r="R17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
-      <c r="S17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr"/>
+      <c r="S17" t="inlineStr"/>
       <c r="T17" t="inlineStr">
         <is>
-          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
-        </is>
-      </c>
-      <c r="U17" t="inlineStr">
-        <is>
-          <t>nan</t>
-        </is>
-      </c>
+          <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr"/>
       <c r="V17" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>

--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -7,7 +7,7 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="HAZOP" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -37,7 +37,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="2">
+  <borders count="6">
     <border>
       <left/>
       <right/>
@@ -50,6 +50,34 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -425,7 +453,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Y17"/>
+  <dimension ref="A1:Z19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -434,1933 +462,2049 @@
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>ID HAZOP Case</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Deviation HAZOPNode</t>
-        </is>
-      </c>
+      <c r="A1" s="1" t="inlineStr"/>
+      <c r="B1" s="1" t="inlineStr"/>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Deviation Parameter</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>Deviation Guideword</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>Deviation Description</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>Cause HAZOPNode</t>
-        </is>
-      </c>
+          <t>Deviation</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="n"/>
+      <c r="E1" s="1" t="n"/>
+      <c r="F1" s="1" t="n"/>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>Cause Parameter</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>Cause Guideword</t>
-        </is>
-      </c>
-      <c r="I1" s="1" t="inlineStr">
-        <is>
-          <t>Cause Description</t>
-        </is>
-      </c>
-      <c r="J1" s="1" t="inlineStr">
-        <is>
-          <t>Consequence HAZOPNode</t>
-        </is>
-      </c>
+          <t>Cause</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="n"/>
+      <c r="I1" s="1" t="n"/>
+      <c r="J1" s="1" t="n"/>
       <c r="K1" s="1" t="inlineStr">
         <is>
-          <t>Consequence Parameter</t>
-        </is>
-      </c>
-      <c r="L1" s="1" t="inlineStr">
-        <is>
-          <t>Consequence Guideword</t>
-        </is>
-      </c>
-      <c r="M1" s="1" t="inlineStr">
-        <is>
-          <t>Consequence Description</t>
-        </is>
-      </c>
-      <c r="N1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Severity</t>
-        </is>
-      </c>
+          <t>Consequence</t>
+        </is>
+      </c>
+      <c r="L1" s="1" t="n"/>
+      <c r="M1" s="1" t="n"/>
+      <c r="N1" s="1" t="n"/>
       <c r="O1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Risk Graph Frequency of Presence </t>
-        </is>
-      </c>
-      <c r="P1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Possibility of avoiding</t>
-        </is>
-      </c>
-      <c r="Q1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Probability</t>
-        </is>
-      </c>
-      <c r="R1" s="1" t="inlineStr">
-        <is>
-          <t>Safeguard HAZOPNode</t>
-        </is>
-      </c>
+          <t>Risk Graph</t>
+        </is>
+      </c>
+      <c r="P1" s="1" t="n"/>
+      <c r="Q1" s="1" t="n"/>
+      <c r="R1" s="1" t="n"/>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>Safeguard Description</t>
-        </is>
-      </c>
-      <c r="T1" s="1" t="inlineStr">
-        <is>
-          <t>Safeguard Recommendation</t>
-        </is>
-      </c>
-      <c r="U1" s="1" t="inlineStr">
-        <is>
-          <t>Safeguard Other info</t>
-        </is>
-      </c>
-      <c r="V1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Severity</t>
-        </is>
-      </c>
+          <t>Safeguard</t>
+        </is>
+      </c>
+      <c r="T1" s="1" t="n"/>
+      <c r="U1" s="1" t="n"/>
+      <c r="V1" s="1" t="n"/>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Risk Graph Frequency of Presence </t>
-        </is>
-      </c>
-      <c r="X1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Possibility of avoiding</t>
-        </is>
-      </c>
-      <c r="Y1" s="1" t="inlineStr">
-        <is>
-          <t>Risk Graph Probability</t>
-        </is>
-      </c>
+          <t>Risk Graph</t>
+        </is>
+      </c>
+      <c r="X1" s="1" t="n"/>
+      <c r="Y1" s="1" t="n"/>
+      <c r="Z1" s="1" t="n"/>
     </row>
     <row r="2">
-      <c r="A2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>Temperatur</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>In 1 - Feed-Eingang</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>Temperatur</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
-        </is>
-      </c>
-      <c r="J2" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K2" t="inlineStr"/>
-      <c r="L2" t="inlineStr"/>
-      <c r="M2" t="inlineStr">
-        <is>
-          <t>Materialversagen der Dichtungen, Leckage</t>
-        </is>
-      </c>
-      <c r="N2" t="inlineStr">
-        <is>
-          <t>S2 - geringe</t>
-        </is>
-      </c>
-      <c r="O2" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="P2" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
-      <c r="Q2" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
-      <c r="R2" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S2" t="inlineStr">
-        <is>
-          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
-        </is>
-      </c>
-      <c r="T2" t="inlineStr"/>
-      <c r="U2" t="inlineStr"/>
-      <c r="V2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W2" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="X2" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
-      <c r="Y2" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
+      <c r="A2" s="1" t="inlineStr"/>
+      <c r="B2" s="1" t="inlineStr">
+        <is>
+          <t>ID HAZOP Case</t>
+        </is>
+      </c>
+      <c r="C2" s="1" t="inlineStr">
+        <is>
+          <t>HAZOPNode</t>
+        </is>
+      </c>
+      <c r="D2" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="E2" s="1" t="inlineStr">
+        <is>
+          <t>Guideword</t>
+        </is>
+      </c>
+      <c r="F2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="G2" s="1" t="inlineStr">
+        <is>
+          <t>HAZOPNode</t>
+        </is>
+      </c>
+      <c r="H2" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="I2" s="1" t="inlineStr">
+        <is>
+          <t>Guideword</t>
+        </is>
+      </c>
+      <c r="J2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="K2" s="1" t="inlineStr">
+        <is>
+          <t>HAZOPNode</t>
+        </is>
+      </c>
+      <c r="L2" s="1" t="inlineStr">
+        <is>
+          <t>Parameter</t>
+        </is>
+      </c>
+      <c r="M2" s="1" t="inlineStr">
+        <is>
+          <t>Guideword</t>
+        </is>
+      </c>
+      <c r="N2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="O2" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="P2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frequency of Presence </t>
+        </is>
+      </c>
+      <c r="Q2" s="1" t="inlineStr">
+        <is>
+          <t>Possibility of avoiding</t>
+        </is>
+      </c>
+      <c r="R2" s="1" t="inlineStr">
+        <is>
+          <t>Probability</t>
+        </is>
+      </c>
+      <c r="S2" s="1" t="inlineStr">
+        <is>
+          <t>HAZOPNode</t>
+        </is>
+      </c>
+      <c r="T2" s="1" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="U2" s="1" t="inlineStr">
+        <is>
+          <t>Recommendation</t>
+        </is>
+      </c>
+      <c r="V2" s="1" t="inlineStr">
+        <is>
+          <t>Other info</t>
+        </is>
+      </c>
+      <c r="W2" s="1" t="inlineStr">
+        <is>
+          <t>Severity</t>
+        </is>
+      </c>
+      <c r="X2" s="1" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Frequency of Presence </t>
+        </is>
+      </c>
+      <c r="Y2" s="1" t="inlineStr">
+        <is>
+          <t>Possibility of avoiding</t>
+        </is>
+      </c>
+      <c r="Z2" s="1" t="inlineStr">
+        <is>
+          <t>Probability</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="n">
-        <v>2</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>Temperatur</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Temperatur</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
-        </is>
-      </c>
-      <c r="J3" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K3" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
-      <c r="L3" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M3" t="inlineStr">
-        <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
-        </is>
-      </c>
-      <c r="N3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
-        </is>
-      </c>
-      <c r="O3" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="P3" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
-      <c r="Q3" t="inlineStr">
-        <is>
-          <t>W1 - sehr gering</t>
-        </is>
-      </c>
-      <c r="R3" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S3" t="inlineStr">
-        <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
-      <c r="T3" t="inlineStr">
-        <is>
-          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
-        </is>
-      </c>
-      <c r="U3" t="inlineStr"/>
-      <c r="V3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W3" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="X3" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
-      <c r="Y3" t="inlineStr">
-        <is>
-          <t>W1 - sehr gering</t>
+      <c r="A3" s="1" t="inlineStr">
+        <is>
+          <t>Index</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="n">
-        <v>3</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A4" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B4" t="n">
+        <v>1</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
           <t>Temperatur</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr"/>
-      <c r="H4" t="inlineStr"/>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Temperatur</t>
+        </is>
+      </c>
       <c r="I4" t="inlineStr">
         <is>
-          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J4" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K4" t="inlineStr"/>
+          <t>Zugeführtes Prozessmedium zu heiß (&gt;200°C)</t>
+        </is>
+      </c>
+      <c r="K4" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
       <c r="L4" t="inlineStr"/>
-      <c r="M4" t="inlineStr">
-        <is>
-          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
-        </is>
-      </c>
+      <c r="M4" t="inlineStr"/>
       <c r="N4" t="inlineStr">
         <is>
+          <t>Materialversagen der Dichtungen, Leckage</t>
+        </is>
+      </c>
+      <c r="O4" t="inlineStr">
+        <is>
           <t>S2 - geringe</t>
         </is>
       </c>
-      <c r="O4" t="inlineStr">
+      <c r="P4" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P4" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
       <c r="Q4" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="R4" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="S4" t="inlineStr">
         <is>
-          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="T4" t="inlineStr">
         <is>
-          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
-        </is>
-      </c>
-      <c r="U4" t="inlineStr">
-        <is>
-          <t>externe Sicherung notwendig</t>
-        </is>
-      </c>
-      <c r="V4" t="inlineStr">
-        <is>
-          <t>S2 - geringe</t>
-        </is>
-      </c>
+          <t>Hochwertige Dichtungen für Temp. über 200°C (bei 25bar)</t>
+        </is>
+      </c>
+      <c r="U4" t="inlineStr"/>
+      <c r="V4" t="inlineStr"/>
       <c r="W4" t="inlineStr">
         <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="X4" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="X4" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
       <c r="Y4" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Z4" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="n">
-        <v>4</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A5" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B5" t="n">
+        <v>2</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
           <t>Temperatur</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>Medium</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="I5" t="inlineStr">
         <is>
-          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J5" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Hohe Temperatur aus vorangegangenem Prozessschritt</t>
         </is>
       </c>
       <c r="K5" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L5" t="inlineStr">
+        <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="L5" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="M5" t="inlineStr">
         <is>
-          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N5" t="inlineStr">
         <is>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund der Hohen Temperatur im Behälter, bersten des Behälters</t>
+        </is>
+      </c>
+      <c r="O5" t="inlineStr">
+        <is>
           <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
-      <c r="O5" t="inlineStr">
+      <c r="P5" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P5" t="inlineStr">
+      <c r="Q5" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q5" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
       <c r="R5" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
       <c r="S5" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="T5" t="inlineStr">
+        <is>
           <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
-      <c r="T5" t="inlineStr"/>
-      <c r="U5" t="inlineStr"/>
-      <c r="V5" t="inlineStr">
+      <c r="U5" t="inlineStr">
+        <is>
+          <t>regelmäßige Prüfung des Sicherheitsventils (Ausbau + Test)</t>
+        </is>
+      </c>
+      <c r="V5" t="inlineStr"/>
+      <c r="W5" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W5" t="inlineStr">
+      <c r="X5" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="X5" t="inlineStr">
+      <c r="Y5" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Y5" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
+      <c r="Z5" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="n">
-        <v>5</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A6" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B6" t="n">
+        <v>3</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
           <t>Temperatur</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E6" t="inlineStr">
         <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
           <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>In 2 - N2 Eingang</t>
-        </is>
-      </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>Anderer/Anders als</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
-        </is>
-      </c>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="H6" t="inlineStr"/>
+      <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K6" t="inlineStr"/>
+          <t>Brand im Außenbereich, Strahlungswärme &gt;200°C</t>
+        </is>
+      </c>
+      <c r="K6" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
       <c r="L6" t="inlineStr"/>
-      <c r="M6" t="inlineStr">
-        <is>
-          <t>Bilden einer explosionsfähige Atmosphäre</t>
-        </is>
-      </c>
+      <c r="M6" t="inlineStr"/>
       <c r="N6" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>Leckage durch versagen der Dichtungen, Verdampfen der Edukte aufgrund hoher Umgebungstemperaturen</t>
         </is>
       </c>
       <c r="O6" t="inlineStr">
         <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="P6" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P6" t="inlineStr">
+      <c r="Q6" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q6" t="inlineStr">
+      <c r="R6" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
-      <c r="R6" t="inlineStr"/>
-      <c r="S6" t="inlineStr"/>
+      <c r="S6" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
       <c r="T6" t="inlineStr">
         <is>
-          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
-        </is>
-      </c>
-      <c r="U6" t="inlineStr"/>
+          <t>Stromlos-schalten des Moduls, Fail-safe stellung der Ventile</t>
+        </is>
+      </c>
+      <c r="U6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Brandmelde- und Löschanlage in Infrastruktur </t>
+        </is>
+      </c>
       <c r="V6" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>externe Sicherung notwendig</t>
         </is>
       </c>
       <c r="W6" t="inlineStr">
         <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="X6" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="X6" t="inlineStr">
+      <c r="Y6" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Y6" t="inlineStr">
+      <c r="Z6" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="7">
-      <c r="A7" t="n">
-        <v>6</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A7" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="n">
+        <v>4</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
           <t>Temperatur</t>
         </is>
       </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>Weniger</t>
-        </is>
-      </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr"/>
-      <c r="H7" t="inlineStr"/>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t>Medium</t>
+        </is>
+      </c>
       <c r="I7" t="inlineStr">
         <is>
-          <t>Extrem niedrige Umgebungstemperatur</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Verunreinigung, bspw. Säure/Lauge die zu einer Wäremeentwicklung führen</t>
         </is>
       </c>
       <c r="K7" t="inlineStr">
         <is>
-          <t>Aggregatzustand</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="L7" t="inlineStr">
         <is>
-          <t>Anderer/Anders als</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="M7" t="inlineStr">
         <is>
-          <t>Einfrieren des Mediums</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N7" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>Schlagartiges Verdampfen (Druckstoß) der Edukte aufgrund einer Reaktion im Behälter, bersten des Behälters</t>
         </is>
       </c>
       <c r="O7" t="inlineStr">
         <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="P7" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P7" t="inlineStr">
+      <c r="Q7" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q7" t="inlineStr">
-        <is>
-          <t>W1 - sehr gering</t>
-        </is>
-      </c>
-      <c r="R7" t="inlineStr"/>
-      <c r="S7" t="inlineStr"/>
+      <c r="R7" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="S7" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
       <c r="T7" t="inlineStr">
         <is>
-          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="U7" t="inlineStr"/>
       <c r="V7" t="inlineStr"/>
-      <c r="W7" t="inlineStr"/>
-      <c r="X7" t="inlineStr"/>
-      <c r="Y7" t="inlineStr"/>
+      <c r="W7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="X7" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="Y7" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Z7" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
     </row>
     <row r="8">
-      <c r="A8" t="n">
-        <v>7</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A8" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B8" t="n">
+        <v>5</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Überschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>In 2 - N2 Eingang</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I8" t="inlineStr">
         <is>
-          <t>Druck des eingehenden Mediums zu hoch</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="J8" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Stoffverwechslung am Stickstoffeingang (z.B. Chlor)</t>
         </is>
       </c>
       <c r="K8" t="inlineStr">
         <is>
-          <t>Druck</t>
-        </is>
-      </c>
-      <c r="L8" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M8" t="inlineStr">
-        <is>
-          <t>Druckerhöhung innerhalb des Behälters</t>
-        </is>
-      </c>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L8" t="inlineStr"/>
+      <c r="M8" t="inlineStr"/>
       <c r="N8" t="inlineStr">
         <is>
+          <t>Bilden einer explosionsfähige Atmosphäre</t>
+        </is>
+      </c>
+      <c r="O8" t="inlineStr">
+        <is>
           <t xml:space="preserve">S3 - schwerwiegende </t>
         </is>
       </c>
-      <c r="O8" t="inlineStr">
+      <c r="P8" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P8" t="inlineStr">
+      <c r="Q8" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q8" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
       <c r="R8" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S8" t="inlineStr">
-        <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="S8" t="inlineStr"/>
       <c r="T8" t="inlineStr"/>
-      <c r="U8" t="inlineStr"/>
-      <c r="V8" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
+      <c r="U8" t="inlineStr">
+        <is>
+          <t>Organisatorisch ausschließen, dass Chlor an Inertisierung angeschlossen wird</t>
+        </is>
+      </c>
+      <c r="V8" t="inlineStr"/>
       <c r="W8" t="inlineStr">
         <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="X8" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="X8" t="inlineStr">
+      <c r="Y8" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Y8" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
+      <c r="Z8" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="9">
-      <c r="A9" t="n">
-        <v>8</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A9" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B9" t="n">
+        <v>6</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Temperatur</t>
         </is>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+          <t>Weniger</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Unterschreitung der zulässigen Temperatur im Behälter</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Medium</t>
-        </is>
-      </c>
-      <c r="H9" t="inlineStr">
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="H9" t="inlineStr"/>
+      <c r="I9" t="inlineStr"/>
+      <c r="J9" t="inlineStr">
+        <is>
+          <t>Extrem niedrige Umgebungstemperatur</t>
+        </is>
+      </c>
+      <c r="K9" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L9" t="inlineStr">
+        <is>
+          <t>Aggregatzustand</t>
+        </is>
+      </c>
+      <c r="M9" t="inlineStr">
         <is>
           <t>Anderer/Anders als</t>
         </is>
       </c>
-      <c r="I9" t="inlineStr">
-        <is>
-          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
-        </is>
-      </c>
-      <c r="J9" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K9" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
-      <c r="L9" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M9" t="inlineStr">
-        <is>
-          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
-        </is>
-      </c>
       <c r="N9" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>Einfrieren des Mediums</t>
         </is>
       </c>
       <c r="O9" t="inlineStr">
         <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="P9" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P9" t="inlineStr">
+      <c r="Q9" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q9" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
       <c r="R9" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="S9" t="inlineStr">
-        <is>
-          <t>Sicherheitsventil VY3010</t>
-        </is>
-      </c>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="S9" t="inlineStr"/>
       <c r="T9" t="inlineStr"/>
-      <c r="U9" t="inlineStr"/>
-      <c r="V9" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W9" t="inlineStr">
-        <is>
-          <t>A2 - häufig bis andauernd</t>
-        </is>
-      </c>
-      <c r="X9" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
-      <c r="Y9" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
+      <c r="U9" t="inlineStr">
+        <is>
+          <t>Betrieb nur im Innebereich bei moderaten Bedingungen</t>
+        </is>
+      </c>
+      <c r="V9" t="inlineStr"/>
+      <c r="W9" t="inlineStr"/>
+      <c r="X9" t="inlineStr"/>
+      <c r="Y9" t="inlineStr"/>
+      <c r="Z9" t="inlineStr"/>
     </row>
     <row r="10">
-      <c r="A10" t="n">
-        <v>10</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A10" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B10" t="n">
+        <v>7</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>nur reines Lösungsmittel in Behälter</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>Kein</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="I10" t="inlineStr">
         <is>
-          <t>reines Lösungsmittel wird zugeführt</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J10" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K10" t="inlineStr"/>
-      <c r="L10" t="inlineStr"/>
+          <t>Druck des eingehenden Mediums zu hoch</t>
+        </is>
+      </c>
+      <c r="K10" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L10" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
       <c r="M10" t="inlineStr">
         <is>
-          <t>kein</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N10" t="inlineStr">
         <is>
-          <t xml:space="preserve">S1 - minimale </t>
+          <t>Druckerhöhung innerhalb des Behälters</t>
         </is>
       </c>
       <c r="O10" t="inlineStr">
         <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="P10" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P10" t="inlineStr">
+      <c r="Q10" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q10" t="inlineStr">
-        <is>
-          <t>W3 - relativ hoch</t>
-        </is>
-      </c>
       <c r="R10" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="S10" t="inlineStr">
         <is>
-          <t>keine Aktion erforderlich</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="T10" t="inlineStr">
         <is>
-          <t>Normalzustand</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="U10" t="inlineStr"/>
       <c r="V10" t="inlineStr"/>
-      <c r="W10" t="inlineStr"/>
-      <c r="X10" t="inlineStr"/>
-      <c r="Y10" t="inlineStr"/>
+      <c r="W10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="X10" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="Y10" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Z10" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
     </row>
     <row r="11">
-      <c r="A11" t="n">
-        <v>11</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A11" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B11" t="n">
+        <v>8</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>starke Säure oder Base</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>Überschreitung des zulässigen Druckes im Behälter</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Medium</t>
         </is>
       </c>
       <c r="I11" t="inlineStr">
         <is>
-          <t>starke Säure oder Base wird zugeführt</t>
+          <t>Anderer/Anders als</t>
         </is>
       </c>
       <c r="J11" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Verunreinigung im Behälter führt zu exothermer Reaktion unter Gasbildung</t>
         </is>
       </c>
       <c r="K11" t="inlineStr">
         <is>
-          <t>Konzentration</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="L11" t="inlineStr">
         <is>
-          <t>Mehr</t>
+          <t>Druck</t>
         </is>
       </c>
       <c r="M11" t="inlineStr">
         <is>
-          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N11" t="inlineStr">
         <is>
-          <t>S4 - katastophal</t>
+          <t>Temperatur zusätzlich zum Druckanstieg im Behälter</t>
         </is>
       </c>
       <c r="O11" t="inlineStr">
         <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="P11" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P11" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
       <c r="Q11" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>G1 - möglich</t>
         </is>
       </c>
       <c r="R11" t="inlineStr">
         <is>
-          <t>In 1 - Feed-Eingang</t>
+          <t>W2 - gering</t>
         </is>
       </c>
       <c r="S11" t="inlineStr">
         <is>
-          <t>Schulung und SOPs</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="T11" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+          <t>Sicherheitsventil VY3010</t>
         </is>
       </c>
       <c r="U11" t="inlineStr"/>
-      <c r="V11" t="inlineStr">
+      <c r="V11" t="inlineStr"/>
+      <c r="W11" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W11" t="inlineStr">
-        <is>
-          <t>A1 - selten bis häufig</t>
-        </is>
-      </c>
       <c r="X11" t="inlineStr">
         <is>
-          <t>G2 - fast unmöglich</t>
+          <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
       <c r="Y11" t="inlineStr">
         <is>
-          <t>W1 - sehr gering</t>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="Z11" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
         </is>
       </c>
     </row>
     <row r="12">
-      <c r="A12" t="n">
-        <v>12</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A12" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B12" t="n">
+        <v>10</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel</t>
+          <t>Kein</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
+          <t>nur reines Lösungsmittel in Behälter</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="G12" t="inlineStr">
+      <c r="H12" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H12" t="inlineStr"/>
       <c r="I12" t="inlineStr">
         <is>
-          <t>organisches Lösungsmittel wird angeschlossen</t>
+          <t>Kein</t>
         </is>
       </c>
       <c r="J12" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>reines Lösungsmittel wird zugeführt</t>
         </is>
       </c>
       <c r="K12" t="inlineStr">
         <is>
-          <t>Konzentration</t>
-        </is>
-      </c>
-      <c r="L12" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M12" t="inlineStr">
-        <is>
-          <t>Beschädigung der Dichtungen</t>
-        </is>
-      </c>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L12" t="inlineStr"/>
+      <c r="M12" t="inlineStr"/>
       <c r="N12" t="inlineStr">
         <is>
-          <t xml:space="preserve">S3 - schwerwiegende </t>
+          <t>kein</t>
         </is>
       </c>
       <c r="O12" t="inlineStr">
         <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="P12" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P12" t="inlineStr">
+      <c r="Q12" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q12" t="inlineStr">
-        <is>
-          <t>W2 - gering</t>
-        </is>
-      </c>
       <c r="R12" t="inlineStr">
         <is>
+          <t>W3 - relativ hoch</t>
+        </is>
+      </c>
+      <c r="S12" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="S12" t="inlineStr">
-        <is>
-          <t>Schulung und SOPs</t>
-        </is>
-      </c>
       <c r="T12" t="inlineStr">
         <is>
-          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
-        </is>
-      </c>
-      <c r="U12" t="inlineStr"/>
-      <c r="V12" t="inlineStr">
-        <is>
-          <t xml:space="preserve">S1 - minimale </t>
-        </is>
-      </c>
-      <c r="W12" t="inlineStr">
-        <is>
-          <t>A1 - selten bis häufig</t>
-        </is>
-      </c>
-      <c r="X12" t="inlineStr">
-        <is>
-          <t>G2 - fast unmöglich</t>
-        </is>
-      </c>
-      <c r="Y12" t="inlineStr">
-        <is>
-          <t>W1 - sehr gering</t>
-        </is>
-      </c>
+          <t>keine Aktion erforderlich</t>
+        </is>
+      </c>
+      <c r="U12" t="inlineStr">
+        <is>
+          <t>Normalzustand</t>
+        </is>
+      </c>
+      <c r="V12" t="inlineStr"/>
+      <c r="W12" t="inlineStr"/>
+      <c r="X12" t="inlineStr"/>
+      <c r="Y12" t="inlineStr"/>
+      <c r="Z12" t="inlineStr"/>
     </row>
     <row r="13">
-      <c r="A13" t="n">
-        <v>13</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A13" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B13" t="n">
+        <v>11</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>hohe Viskosität</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
+          <t>starke Säure oder Base</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="G13" t="inlineStr">
+      <c r="H13" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H13" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="I13" t="inlineStr">
         <is>
-          <t>hoch viskoses Medium</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J13" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>starke Säure oder Base wird zugeführt</t>
         </is>
       </c>
       <c r="K13" t="inlineStr">
         <is>
-          <t>Leistung</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="L13" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="M13" t="inlineStr">
         <is>
-          <t>Pumpe ist überfordert</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N13" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>Korrosion an Wand, Schweißnähte oder Dichtungen</t>
         </is>
       </c>
       <c r="O13" t="inlineStr">
         <is>
+          <t>S4 - katastophal</t>
+        </is>
+      </c>
+      <c r="P13" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P13" t="inlineStr">
+      <c r="Q13" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Q13" t="inlineStr">
+      <c r="R13" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
-      <c r="R13" t="inlineStr">
+      <c r="S13" t="inlineStr">
         <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="S13" t="inlineStr">
+      <c r="T13" t="inlineStr">
         <is>
           <t>Schulung und SOPs</t>
         </is>
       </c>
-      <c r="T13" t="inlineStr">
-        <is>
-          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
-        </is>
-      </c>
-      <c r="U13" t="inlineStr"/>
-      <c r="V13" t="inlineStr">
+      <c r="U13" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung starker Säuren und Basen gut trainieren</t>
+        </is>
+      </c>
+      <c r="V13" t="inlineStr"/>
+      <c r="W13" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W13" t="inlineStr">
+      <c r="X13" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X13" t="inlineStr">
+      <c r="Y13" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y13" t="inlineStr">
+      <c r="Z13" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="14">
-      <c r="A14" t="n">
-        <v>14</v>
-      </c>
-      <c r="B14" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A14" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B14" t="n">
+        <v>12</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D14" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>Feststoffe bilden sich</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>organisches Lösungsmittel</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="H14" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H14" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="I14" t="inlineStr">
-        <is>
-          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
-        </is>
-      </c>
+      <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr">
         <is>
-          <t>Out 1 - Feed Ausgang</t>
+          <t>organisches Lösungsmittel wird angeschlossen</t>
         </is>
       </c>
       <c r="K14" t="inlineStr">
         <is>
-          <t>Druck</t>
+          <t>Speicherbehälter</t>
         </is>
       </c>
       <c r="L14" t="inlineStr">
         <is>
-          <t>Weniger</t>
+          <t>Konzentration</t>
         </is>
       </c>
       <c r="M14" t="inlineStr">
         <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="N14" t="inlineStr">
         <is>
-          <t>S2 - geringe</t>
+          <t>Beschädigung der Dichtungen</t>
         </is>
       </c>
       <c r="O14" t="inlineStr">
         <is>
+          <t xml:space="preserve">S3 - schwerwiegende </t>
+        </is>
+      </c>
+      <c r="P14" t="inlineStr">
+        <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P14" t="inlineStr">
+      <c r="Q14" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q14" t="inlineStr">
+      <c r="R14" t="inlineStr">
         <is>
           <t>W2 - gering</t>
         </is>
       </c>
-      <c r="R14" t="inlineStr"/>
-      <c r="S14" t="inlineStr"/>
+      <c r="S14" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
       <c r="T14" t="inlineStr">
         <is>
-          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
-        </is>
-      </c>
-      <c r="U14" t="inlineStr"/>
-      <c r="V14" t="inlineStr">
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="U14" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung organischer Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V14" t="inlineStr"/>
+      <c r="W14" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W14" t="inlineStr">
+      <c r="X14" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X14" t="inlineStr">
+      <c r="Y14" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y14" t="inlineStr">
+      <c r="Z14" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="15">
-      <c r="A15" t="n">
-        <v>15</v>
-      </c>
-      <c r="B15" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A15" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B15" t="n">
+        <v>13</v>
       </c>
       <c r="C15" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D15" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>Feststoffe werden in Behälter eingelassen</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
+          <t>hohe Viskosität</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="G15" t="inlineStr">
+      <c r="H15" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H15" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="I15" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
+          <t>hoch viskoses Medium</t>
+        </is>
+      </c>
+      <c r="K15" t="inlineStr">
+        <is>
           <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
-      <c r="K15" t="inlineStr">
-        <is>
-          <t>Druck</t>
-        </is>
-      </c>
       <c r="L15" t="inlineStr">
         <is>
+          <t>Leistung</t>
+        </is>
+      </c>
+      <c r="M15" t="inlineStr">
+        <is>
           <t>Weniger</t>
         </is>
       </c>
-      <c r="M15" t="inlineStr">
-        <is>
-          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
-        </is>
-      </c>
       <c r="N15" t="inlineStr">
         <is>
+          <t>Pumpe ist überfordert</t>
+        </is>
+      </c>
+      <c r="O15" t="inlineStr">
+        <is>
           <t>S2 - geringe</t>
         </is>
       </c>
-      <c r="O15" t="inlineStr">
+      <c r="P15" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P15" t="inlineStr">
-        <is>
-          <t>G1 - möglich</t>
-        </is>
-      </c>
       <c r="Q15" t="inlineStr">
         <is>
-          <t>W2 - gering</t>
+          <t>G2 - fast unmöglich</t>
         </is>
       </c>
       <c r="R15" t="inlineStr">
         <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+      <c r="S15" t="inlineStr">
+        <is>
           <t>In 1 - Feed-Eingang</t>
         </is>
       </c>
-      <c r="S15" t="inlineStr">
-        <is>
-          <t>Filter vor Behälter oder Schulung</t>
-        </is>
-      </c>
       <c r="T15" t="inlineStr">
         <is>
-          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
-        </is>
-      </c>
-      <c r="U15" t="inlineStr"/>
-      <c r="V15" t="inlineStr">
+          <t>Schulung und SOPs</t>
+        </is>
+      </c>
+      <c r="U15" t="inlineStr">
+        <is>
+          <t>Mitarbeiter vor Verwendung hoch-viskoser Medien gut trainieren</t>
+        </is>
+      </c>
+      <c r="V15" t="inlineStr"/>
+      <c r="W15" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W15" t="inlineStr">
+      <c r="X15" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X15" t="inlineStr">
+      <c r="Y15" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y15" t="inlineStr">
+      <c r="Z15" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="16">
-      <c r="A16" t="n">
-        <v>16</v>
-      </c>
-      <c r="B16" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
+      <c r="A16" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B16" t="n">
+        <v>14</v>
       </c>
       <c r="C16" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D16" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Speicherbehälter</t>
+          <t>Feststoffe bilden sich</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="H16" t="inlineStr">
+        <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H16" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
       <c r="I16" t="inlineStr">
         <is>
-          <t>Feststoffe gelangen in Behälter</t>
+          <t>Mehr</t>
         </is>
       </c>
       <c r="J16" t="inlineStr">
         <is>
+          <t>Feststoffe durch Überschreiten einer Sättigungskonszentration</t>
+        </is>
+      </c>
+      <c r="K16" t="inlineStr">
+        <is>
           <t>Out 1 - Feed Ausgang</t>
         </is>
       </c>
-      <c r="K16" t="inlineStr">
+      <c r="L16" t="inlineStr">
         <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="L16" t="inlineStr">
+      <c r="M16" t="inlineStr">
         <is>
           <t>Weniger</t>
         </is>
       </c>
-      <c r="M16" t="inlineStr">
+      <c r="N16" t="inlineStr">
         <is>
           <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
         </is>
       </c>
-      <c r="N16" t="inlineStr">
+      <c r="O16" t="inlineStr">
         <is>
           <t>S2 - geringe</t>
         </is>
       </c>
-      <c r="O16" t="inlineStr">
+      <c r="P16" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P16" t="inlineStr">
+      <c r="Q16" t="inlineStr">
         <is>
           <t>G1 - möglich</t>
         </is>
       </c>
-      <c r="Q16" t="inlineStr">
+      <c r="R16" t="inlineStr">
         <is>
           <t>W2 - gering</t>
         </is>
       </c>
-      <c r="R16" t="inlineStr"/>
       <c r="S16" t="inlineStr"/>
-      <c r="T16" t="inlineStr">
-        <is>
-          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
-        </is>
-      </c>
-      <c r="U16" t="inlineStr"/>
-      <c r="V16" t="inlineStr">
+      <c r="T16" t="inlineStr"/>
+      <c r="U16" t="inlineStr">
+        <is>
+          <t>Bei häufigem Feststoffauftritt muss Filter wechselbar sein, bzw. Parallelen Filter oder Bypass-Schaltung für Filter FL1010</t>
+        </is>
+      </c>
+      <c r="V16" t="inlineStr"/>
+      <c r="W16" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W16" t="inlineStr">
+      <c r="X16" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X16" t="inlineStr">
+      <c r="Y16" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y16" t="inlineStr">
+      <c r="Z16" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
     <row r="17">
-      <c r="A17" t="n">
+      <c r="A17" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B17" t="n">
+        <v>15</v>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>Feststoffe werden in Behälter eingelassen</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="H17" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="I17" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="J17" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="K17" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="L17" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="M17" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="N17" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="O17" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="P17" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="Q17" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="R17" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="S17" t="inlineStr">
+        <is>
+          <t>In 1 - Feed-Eingang</t>
+        </is>
+      </c>
+      <c r="T17" t="inlineStr">
+        <is>
+          <t>Filter vor Behälter oder Schulung</t>
+        </is>
+      </c>
+      <c r="U17" t="inlineStr">
+        <is>
+          <t>Filter muss bei Feststoffgefahr am Einlass vorgesehen werden, oder MA werden auf Vorhandensein von Feststoffen geschult</t>
+        </is>
+      </c>
+      <c r="V17" t="inlineStr"/>
+      <c r="W17" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="X17" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="Y17" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Z17" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B18" t="n">
+        <v>16</v>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Dichtungsabrieb in Behälter </t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="H18" t="inlineStr">
+        <is>
+          <t>Konzentration</t>
+        </is>
+      </c>
+      <c r="I18" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="J18" t="inlineStr">
+        <is>
+          <t>Feststoffe gelangen in Behälter</t>
+        </is>
+      </c>
+      <c r="K18" t="inlineStr">
+        <is>
+          <t>Out 1 - Feed Ausgang</t>
+        </is>
+      </c>
+      <c r="L18" t="inlineStr">
+        <is>
+          <t>Druck</t>
+        </is>
+      </c>
+      <c r="M18" t="inlineStr">
+        <is>
+          <t>Weniger</t>
+        </is>
+      </c>
+      <c r="N18" t="inlineStr">
+        <is>
+          <t>Höherer Druckverlust über Filter, Pumpe kavitiert</t>
+        </is>
+      </c>
+      <c r="O18" t="inlineStr">
+        <is>
+          <t>S2 - geringe</t>
+        </is>
+      </c>
+      <c r="P18" t="inlineStr">
+        <is>
+          <t>A2 - häufig bis andauernd</t>
+        </is>
+      </c>
+      <c r="Q18" t="inlineStr">
+        <is>
+          <t>G1 - möglich</t>
+        </is>
+      </c>
+      <c r="R18" t="inlineStr">
+        <is>
+          <t>W2 - gering</t>
+        </is>
+      </c>
+      <c r="S18" t="inlineStr"/>
+      <c r="T18" t="inlineStr"/>
+      <c r="U18" t="inlineStr">
+        <is>
+          <t>MA überprüfen vor jedem Befüllen die Behälterdichtungen</t>
+        </is>
+      </c>
+      <c r="V18" t="inlineStr"/>
+      <c r="W18" t="inlineStr">
+        <is>
+          <t xml:space="preserve">S1 - minimale </t>
+        </is>
+      </c>
+      <c r="X18" t="inlineStr">
+        <is>
+          <t>A1 - selten bis häufig</t>
+        </is>
+      </c>
+      <c r="Y18" t="inlineStr">
+        <is>
+          <t>G2 - fast unmöglich</t>
+        </is>
+      </c>
+      <c r="Z18" t="inlineStr">
+        <is>
+          <t>W1 - sehr gering</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B19" t="n">
         <v>17</v>
       </c>
-      <c r="B17" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="C17" t="inlineStr">
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="D17" t="inlineStr">
+      <c r="E19" t="inlineStr">
         <is>
           <t>Anderer/Anders als</t>
         </is>
       </c>
-      <c r="E17" t="inlineStr">
+      <c r="F19" t="inlineStr">
         <is>
           <t>Stickstoff zum Inertisieren</t>
         </is>
       </c>
-      <c r="F17" t="inlineStr">
+      <c r="G19" t="inlineStr">
         <is>
           <t>In 2 - N2 Eingang</t>
         </is>
       </c>
-      <c r="G17" t="inlineStr">
+      <c r="H19" t="inlineStr">
         <is>
           <t>Konzentration</t>
         </is>
       </c>
-      <c r="H17" t="inlineStr">
+      <c r="I19" t="inlineStr">
         <is>
           <t>Anderer/Anders als</t>
         </is>
       </c>
-      <c r="I17" t="inlineStr">
+      <c r="J19" t="inlineStr">
         <is>
           <t>Luft, O2, CH4 oder andere brennbare Medien --&gt; HAZOPCase ID 5</t>
         </is>
       </c>
-      <c r="J17" t="inlineStr">
-        <is>
-          <t>Speicherbehälter</t>
-        </is>
-      </c>
-      <c r="K17" t="inlineStr">
+      <c r="K19" t="inlineStr">
+        <is>
+          <t>Speicherbehälter</t>
+        </is>
+      </c>
+      <c r="L19" t="inlineStr">
         <is>
           <t>Druck</t>
         </is>
       </c>
-      <c r="L17" t="inlineStr">
-        <is>
-          <t>Mehr</t>
-        </is>
-      </c>
-      <c r="M17" t="inlineStr">
+      <c r="M19" t="inlineStr">
+        <is>
+          <t>Mehr</t>
+        </is>
+      </c>
+      <c r="N19" t="inlineStr">
         <is>
           <t>Explosionsfähige Atmosphäre</t>
         </is>
       </c>
-      <c r="N17" t="inlineStr">
+      <c r="O19" t="inlineStr">
         <is>
           <t>S4 - katastophal</t>
         </is>
       </c>
-      <c r="O17" t="inlineStr">
+      <c r="P19" t="inlineStr">
         <is>
           <t>A2 - häufig bis andauernd</t>
         </is>
       </c>
-      <c r="P17" t="inlineStr">
+      <c r="Q19" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Q17" t="inlineStr">
+      <c r="R19" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
-      <c r="R17" t="inlineStr"/>
-      <c r="S17" t="inlineStr"/>
-      <c r="T17" t="inlineStr">
+      <c r="S19" t="inlineStr"/>
+      <c r="T19" t="inlineStr"/>
+      <c r="U19" t="inlineStr">
         <is>
           <t>Mitarbeiter vor Verwendung Stickstoff oder anderer gasförmiger Medien gut trainieren</t>
         </is>
       </c>
-      <c r="U17" t="inlineStr"/>
-      <c r="V17" t="inlineStr">
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="inlineStr">
         <is>
           <t xml:space="preserve">S1 - minimale </t>
         </is>
       </c>
-      <c r="W17" t="inlineStr">
+      <c r="X19" t="inlineStr">
         <is>
           <t>A1 - selten bis häufig</t>
         </is>
       </c>
-      <c r="X17" t="inlineStr">
+      <c r="Y19" t="inlineStr">
         <is>
           <t>G2 - fast unmöglich</t>
         </is>
       </c>
-      <c r="Y17" t="inlineStr">
+      <c r="Z19" t="inlineStr">
         <is>
           <t>W1 - sehr gering</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="C1:F1"/>
+    <mergeCell ref="G1:J1"/>
+    <mergeCell ref="K1:N1"/>
+    <mergeCell ref="O1:R1"/>
+    <mergeCell ref="S1:V1"/>
+    <mergeCell ref="W1:Z1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -587,7 +587,7 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frequency of Presence </t>
+          <t>Frequency of Presence</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t xml:space="preserve">Frequency of Presence </t>
+          <t>Frequency of Presence</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">

--- a/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
+++ b/data/excel/PEA-HAZOP-Dosiermodul_v07.xlsx
@@ -517,7 +517,7 @@
       <c r="A2" s="1" t="inlineStr"/>
       <c r="B2" s="1" t="inlineStr">
         <is>
-          <t>ID HAZOP Case</t>
+          <t>HAZOP Case ID</t>
         </is>
       </c>
       <c r="C2" s="1" t="inlineStr">
@@ -587,7 +587,7 @@
       </c>
       <c r="P2" s="1" t="inlineStr">
         <is>
-          <t>Frequency of Presence</t>
+          <t>Frequency of presence</t>
         </is>
       </c>
       <c r="Q2" s="1" t="inlineStr">
@@ -627,7 +627,7 @@
       </c>
       <c r="X2" s="1" t="inlineStr">
         <is>
-          <t>Frequency of Presence</t>
+          <t>Frequency of presence</t>
         </is>
       </c>
       <c r="Y2" s="1" t="inlineStr">
